--- a/html/resources/ioaConditions/test1Conditions.xlsx
+++ b/html/resources/ioaConditions/test1Conditions.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="109">
   <si>
     <t>firstAudio</t>
   </si>
@@ -34,289 +34,310 @@
     <t>feedback</t>
   </si>
   <si>
+    <t>trainingaudio/04_kitoti2.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/12_pokika1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/02_pitito1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/20_tatito1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/24_takopa1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/09_tipata2.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/14_pokoto3.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/15_kopota1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/27_pakapa3.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/22_kakoki3.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/18_popata1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/13_kopopi3.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/06_titoka1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/11_tokiko3.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/05_titopo1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/94_kipipi1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/07_pitapi1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/25_tapapi1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/03_kikita3.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/01_kitipi2.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/26_kapako1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/10_tokiti3.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/21_papika2.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/19_papipi2.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/17_kotako2.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/16_kokapi1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/23_patoko1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/08_tipako1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/27_pakapa2.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/20_tatito3.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/12_pokika2.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/01_kitipi3.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/09_tipata3.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/25_tapapi2.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/15_kopota2.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/24_takopa3.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/06_titoka3.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/16_kokapi3.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/22_kakoki1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/17_kotako1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/13_kopopi2.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/94_kipipi2.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/19_papipi3.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/11_tokiko2.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/26_kapako3.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/23_patoko2.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/14_pokoto2.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/03_kikita1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/04_kitoti1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/02_pitito2.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/20_tatito2.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/24_takopa2.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/09_tipata1.wav</t>
+  </si>
+  <si>
     <t>trainingaudio/14_pokoto1.wav</t>
   </si>
   <si>
+    <t>trainingaudio/15_kopota3.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/27_pakapa1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/22_kakoki2.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/18_popata3.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/13_kopopi1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/06_titoka2.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/05_titopo3.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/07_pitapi3.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/25_tapapi3.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/01_kitipi1.wav</t>
+  </si>
+  <si>
     <t>trainingaudio/10_tokiti2.wav</t>
   </si>
   <si>
+    <t>trainingaudio/21_papika3.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/08_tipako3.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/02_pitito3.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/08_tipako2.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/16_kokapi2.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/17_kotako3.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/11_tokiko1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/23_patoko3.wav</t>
+  </si>
+  <si>
     <t>trainingaudio/03_kikita2.wav</t>
   </si>
   <si>
-    <t>trainingaudio/07_pitapi1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/25_tapapi1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/04_kitoti2.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/15_kopota2.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/12_pokika1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/19_papipi3.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/09_tipata1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/94_kipipi1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/01_kitipi1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/18_popata2.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/08_tipako3.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/06_titoka3.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/26_kapako3.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/16_kokapi2.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/22_kakoki2.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/13_kopopi2.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/27_pakapa1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/24_takopa3.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/17_kotako2.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/20_tatito2.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/05_titopo2.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/21_papika3.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/02_pitito1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/11_tokiko2.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/23_patoko2.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/22_kakoki3.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/05_titopo3.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/02_pitito3.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/15_kopota1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/13_kopopi3.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/16_kokapi3.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/14_pokoto3.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/08_tipako1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/17_kotako1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/24_takopa2.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/04_kitoti1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/23_patoko3.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/19_papipi1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/25_tapapi3.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/21_papika2.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/03_kikita1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/12_pokika2.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/10_tokiti3.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/07_pitapi3.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/19_papipi2.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/09_tipata3.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/94_kipipi2.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/01_kitipi2.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/18_popata1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/06_titoka1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/26_kapako2.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/27_pakapa2.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/20_tatito1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/05_titopo1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/11_tokiko3.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/26_kapako1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/15_kopota3.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/13_kopopi1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/08_tipako2.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/10_tokiti1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/94_kipipi3.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/24_takopa1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/03_kikita3.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/20_tatito3.wav</t>
+    <t>pngimages/04_ladder.png</t>
+  </si>
+  <si>
+    <t>pngimages/12_pie.png</t>
+  </si>
+  <si>
+    <t>pngimages/02_pallet.png</t>
+  </si>
+  <si>
+    <t>pngimages/20_pizza.png</t>
+  </si>
+  <si>
+    <t>pngimages/24_banana.png</t>
+  </si>
+  <si>
+    <t>pngimages/09_plane.png</t>
   </si>
   <si>
     <t>pngimages/14_coffee.png</t>
   </si>
   <si>
+    <t>pngimages/15_barrel.png</t>
+  </si>
+  <si>
+    <t>pngimages/27_kiwi.png</t>
+  </si>
+  <si>
+    <t>pngimages/22_egg.png</t>
+  </si>
+  <si>
+    <t>pngimages/18_donut.png</t>
+  </si>
+  <si>
+    <t>pngimages/13_toast.png</t>
+  </si>
+  <si>
+    <t>pngimages/06_tent.png</t>
+  </si>
+  <si>
+    <t>pngimages/11_compass.png</t>
+  </si>
+  <si>
+    <t>pngimages/05_megaphone.png</t>
+  </si>
+  <si>
+    <t>pngimages/94_house.png</t>
+  </si>
+  <si>
+    <t>pngimages/07_suitcase.png</t>
+  </si>
+  <si>
+    <t>pngimages/25_apple.png</t>
+  </si>
+  <si>
+    <t>pngimages/03_box.png</t>
+  </si>
+  <si>
+    <t>pngimages/01_gift.png</t>
+  </si>
+  <si>
+    <t>pngimages/26_pineapple.png</t>
+  </si>
+  <si>
     <t>pngimages/10_backpack.png</t>
   </si>
   <si>
-    <t>pngimages/03_box.png</t>
-  </si>
-  <si>
-    <t>pngimages/07_suitcase.png</t>
-  </si>
-  <si>
-    <t>pngimages/25_apple.png</t>
-  </si>
-  <si>
-    <t>pngimages/04_ladder.png</t>
-  </si>
-  <si>
-    <t>pngimages/15_barrel.png</t>
-  </si>
-  <si>
-    <t>pngimages/12_pie.png</t>
+    <t>pngimages/21_cheese.png</t>
   </si>
   <si>
     <t>pngimages/19_burger.png</t>
   </si>
   <si>
-    <t>pngimages/09_plane.png</t>
-  </si>
-  <si>
-    <t>pngimages/94_house.png</t>
-  </si>
-  <si>
-    <t>pngimages/01_gift.png</t>
-  </si>
-  <si>
-    <t>pngimages/18_donut.png</t>
+    <t>pngimages/17_cracker.png</t>
+  </si>
+  <si>
+    <t>pngimages/16_icecream.png</t>
+  </si>
+  <si>
+    <t>pngimages/23_lemon.png</t>
   </si>
   <si>
     <t>pngimages/08_bell.png</t>
-  </si>
-  <si>
-    <t>pngimages/06_tent.png</t>
-  </si>
-  <si>
-    <t>pngimages/26_pineapple.png</t>
-  </si>
-  <si>
-    <t>pngimages/16_icecream.png</t>
-  </si>
-  <si>
-    <t>pngimages/22_egg.png</t>
-  </si>
-  <si>
-    <t>pngimages/13_toast.png</t>
-  </si>
-  <si>
-    <t>pngimages/27_kiwi.png</t>
-  </si>
-  <si>
-    <t>pngimages/24_banana.png</t>
-  </si>
-  <si>
-    <t>pngimages/17_cracker.png</t>
-  </si>
-  <si>
-    <t>pngimages/20_pizza.png</t>
-  </si>
-  <si>
-    <t>pngimages/05_megaphone.png</t>
-  </si>
-  <si>
-    <t>pngimages/21_cheese.png</t>
-  </si>
-  <si>
-    <t>pngimages/02_pallet.png</t>
-  </si>
-  <si>
-    <t>pngimages/11_compass.png</t>
-  </si>
-  <si>
-    <t>pngimages/23_lemon.png</t>
   </si>
   <si>
     <t>test1</t>
@@ -708,19 +729,19 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="C2" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="F2" t="s">
-        <v>6</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -728,19 +749,19 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="C3" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="F3" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -748,19 +769,19 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C4" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="F4" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -768,19 +789,19 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C5" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="F5" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -788,19 +809,19 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="C6" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="D6">
         <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="F6" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -808,19 +829,19 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="C7" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="D7">
         <v>2</v>
       </c>
       <c r="E7" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="F7" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -828,19 +849,19 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="C8" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="D8">
         <v>2</v>
       </c>
       <c r="E8" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="F8" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -848,19 +869,19 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C9" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="F9" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -868,19 +889,19 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="C10" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D10">
         <v>2</v>
       </c>
       <c r="E10" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="F10" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -888,16 +909,16 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="C11" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="F11" t="s">
         <v>15</v>
@@ -908,16 +929,16 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="C12" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="F12" t="s">
         <v>16</v>
@@ -928,16 +949,16 @@
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="C13" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="F13" t="s">
         <v>17</v>
@@ -948,19 +969,19 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="C14" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="D14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="F14" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -968,19 +989,19 @@
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="C15" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="D15">
         <v>2</v>
       </c>
       <c r="E15" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="F15" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -988,19 +1009,19 @@
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="C16" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="D16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="F16" t="s">
-        <v>58</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1008,16 +1029,16 @@
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="C17" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="D17">
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="F17" t="s">
         <v>21</v>
@@ -1028,19 +1049,19 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="C18" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="D18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="F18" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1048,19 +1069,19 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="C19" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="D19">
         <v>2</v>
       </c>
       <c r="E19" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="F19" t="s">
-        <v>34</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1068,19 +1089,19 @@
         <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="C20" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="D20">
         <v>2</v>
       </c>
       <c r="E20" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="F20" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1088,19 +1109,19 @@
         <v>25</v>
       </c>
       <c r="B21" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="C21" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E21" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="F21" t="s">
-        <v>25</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1108,19 +1129,19 @@
         <v>26</v>
       </c>
       <c r="B22" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C22" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="D22">
         <v>2</v>
       </c>
       <c r="E22" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="F22" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1128,19 +1149,19 @@
         <v>27</v>
       </c>
       <c r="B23" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="C23" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="D23">
         <v>2</v>
       </c>
       <c r="E23" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="F23" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1148,16 +1169,16 @@
         <v>28</v>
       </c>
       <c r="B24" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="C24" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="D24">
         <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="F24" t="s">
         <v>28</v>
@@ -1168,19 +1189,19 @@
         <v>29</v>
       </c>
       <c r="B25" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="C25" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="D25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E25" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="F25" t="s">
-        <v>62</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1188,19 +1209,19 @@
         <v>30</v>
       </c>
       <c r="B26" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C26" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="D26">
         <v>2</v>
       </c>
       <c r="E26" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="F26" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1208,19 +1229,19 @@
         <v>31</v>
       </c>
       <c r="B27" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="C27" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E27" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="F27" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1228,19 +1249,19 @@
         <v>32</v>
       </c>
       <c r="B28" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="C28" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="D28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E28" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="F28" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1248,16 +1269,16 @@
         <v>33</v>
       </c>
       <c r="B29" t="s">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="C29" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="D29">
         <v>1</v>
       </c>
       <c r="E29" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="F29" t="s">
         <v>33</v>
@@ -1268,19 +1289,19 @@
         <v>34</v>
       </c>
       <c r="B30" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="C30" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E30" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="F30" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1288,19 +1309,19 @@
         <v>35</v>
       </c>
       <c r="B31" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C31" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="D31">
         <v>2</v>
       </c>
       <c r="E31" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="F31" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1308,236 +1329,236 @@
         <v>36</v>
       </c>
       <c r="B32" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="C32" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="D32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E32" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="F32" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="B33" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C33" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="D33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E33" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="F33" t="s">
-        <v>21</v>
+        <v>69</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B34" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C34" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="D34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E34" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="F34" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="B35" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="C35" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="D35">
         <v>2</v>
       </c>
       <c r="E35" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="F35" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B36" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="C36" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E36" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="F36" t="s">
-        <v>58</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B37" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="C37" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="D37">
         <v>1</v>
       </c>
       <c r="E37" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="F37" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B38" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C38" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E38" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="F38" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B39" t="s">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="C39" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="D39">
         <v>2</v>
       </c>
       <c r="E39" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="F39" t="s">
-        <v>6</v>
+        <v>57</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B40" t="s">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="C40" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="D40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E40" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="F40" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B41" t="s">
-        <v>27</v>
+        <v>75</v>
       </c>
       <c r="C41" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="D41">
         <v>1</v>
       </c>
       <c r="E41" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="F41" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="B42" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="C42" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="D42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E42" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="F42" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43" t="s">
         <v>15</v>
       </c>
-      <c r="B43" t="s">
-        <v>54</v>
-      </c>
       <c r="C43" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="D43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E43" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="F43" t="s">
         <v>15</v>
@@ -1545,282 +1566,282 @@
     </row>
     <row r="44" spans="1:6">
       <c r="A44" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="B44" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="C44" t="s">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="D44">
         <v>1</v>
       </c>
       <c r="E44" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="F44" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="B45" t="s">
-        <v>69</v>
+        <v>17</v>
       </c>
       <c r="C45" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="D45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E45" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="F45" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="B46" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="C46" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="D46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E46" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="F46" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="B47" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="C47" t="s">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="D47">
         <v>1</v>
       </c>
       <c r="E47" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="F47" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="B48" t="s">
         <v>70</v>
       </c>
       <c r="C48" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="D48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E48" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="F48" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="C49" t="s">
-        <v>78</v>
+        <v>103</v>
       </c>
       <c r="D49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E49" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="F49" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="B50" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="C50" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="D50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E50" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="F50" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="C51" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="D51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E51" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="F51" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="B52" t="s">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="C52" t="s">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="D52">
         <v>1</v>
       </c>
       <c r="E52" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="F52" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="B53" t="s">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="C53" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D53">
         <v>1</v>
       </c>
       <c r="E53" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="F53" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="B54" t="s">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="C54" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="D54">
         <v>1</v>
       </c>
       <c r="E54" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="F54" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B55" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="C55" t="s">
-        <v>75</v>
+        <v>106</v>
       </c>
       <c r="D55">
         <v>1</v>
       </c>
       <c r="E55" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="F55" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B56" t="s">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="C56" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="D56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E56" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="F56" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="B57" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C57" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D57">
         <v>1</v>
       </c>
       <c r="E57" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="F57" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/html/resources/ioaConditions/test1Conditions.xlsx
+++ b/html/resources/ioaConditions/test1Conditions.xlsx
@@ -34,226 +34,226 @@
     <t>feedback</t>
   </si>
   <si>
-    <t>trainingaudio/04_kitoti2.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/12_pokika1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/02_pitito1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/20_tatito1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/24_takopa1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/09_tipata2.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/14_pokoto3.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/15_kopota1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/27_pakapa3.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/22_kakoki3.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/18_popata1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/13_kopopi3.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/06_titoka1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/11_tokiko3.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/05_titopo1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/94_kipipi1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/07_pitapi1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/25_tapapi1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/03_kikita3.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/01_kitipi2.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/26_kapako1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/10_tokiti3.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/21_papika2.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/19_papipi2.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/17_kotako2.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/16_kokapi1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/23_patoko1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/08_tipako1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/27_pakapa2.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/20_tatito3.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/12_pokika2.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/01_kitipi3.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/09_tipata3.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/25_tapapi2.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/15_kopota2.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/24_takopa3.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/06_titoka3.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/16_kokapi3.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/22_kakoki1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/17_kotako1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/13_kopopi2.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/94_kipipi2.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/19_papipi3.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/11_tokiko2.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/26_kapako3.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/23_patoko2.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/14_pokoto2.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/03_kikita1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/04_kitoti1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/02_pitito2.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/20_tatito2.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/24_takopa2.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/09_tipata1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/14_pokoto1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/15_kopota3.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/27_pakapa1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/22_kakoki2.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/18_popata3.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/13_kopopi1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/06_titoka2.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/05_titopo3.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/07_pitapi3.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/25_tapapi3.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/01_kitipi1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/10_tokiti2.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/21_papika3.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/08_tipako3.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/02_pitito3.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/08_tipako2.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/16_kokapi2.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/17_kotako3.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/11_tokiko1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/23_patoko3.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/03_kikita2.wav</t>
+    <t>trainingaudio/04_kitoti2.mp3</t>
+  </si>
+  <si>
+    <t>trainingaudio/12_pokika1.mp3</t>
+  </si>
+  <si>
+    <t>trainingaudio/02_pitito1.mp3</t>
+  </si>
+  <si>
+    <t>trainingaudio/20_tatito1.mp3</t>
+  </si>
+  <si>
+    <t>trainingaudio/24_takopa1.mp3</t>
+  </si>
+  <si>
+    <t>trainingaudio/09_tipata2.mp3</t>
+  </si>
+  <si>
+    <t>trainingaudio/14_pokoto3.mp3</t>
+  </si>
+  <si>
+    <t>trainingaudio/15_kopota1.mp3</t>
+  </si>
+  <si>
+    <t>trainingaudio/27_pakapa3.mp3</t>
+  </si>
+  <si>
+    <t>trainingaudio/22_kakoki3.mp3</t>
+  </si>
+  <si>
+    <t>trainingaudio/18_popata1.mp3</t>
+  </si>
+  <si>
+    <t>trainingaudio/13_kopopi3.mp3</t>
+  </si>
+  <si>
+    <t>trainingaudio/06_titoka1.mp3</t>
+  </si>
+  <si>
+    <t>trainingaudio/11_tokiko3.mp3</t>
+  </si>
+  <si>
+    <t>trainingaudio/05_titopo1.mp3</t>
+  </si>
+  <si>
+    <t>trainingaudio/94_kipipi1.mp3</t>
+  </si>
+  <si>
+    <t>trainingaudio/07_pitapi1.mp3</t>
+  </si>
+  <si>
+    <t>trainingaudio/25_tapapi1.mp3</t>
+  </si>
+  <si>
+    <t>trainingaudio/03_kikita3.mp3</t>
+  </si>
+  <si>
+    <t>trainingaudio/01_kitipi2.mp3</t>
+  </si>
+  <si>
+    <t>trainingaudio/26_kapako1.mp3</t>
+  </si>
+  <si>
+    <t>trainingaudio/10_tokiti3.mp3</t>
+  </si>
+  <si>
+    <t>trainingaudio/21_papika2.mp3</t>
+  </si>
+  <si>
+    <t>trainingaudio/19_papipi2.mp3</t>
+  </si>
+  <si>
+    <t>trainingaudio/17_kotako2.mp3</t>
+  </si>
+  <si>
+    <t>trainingaudio/16_kokapi1.mp3</t>
+  </si>
+  <si>
+    <t>trainingaudio/23_patoko1.mp3</t>
+  </si>
+  <si>
+    <t>trainingaudio/08_tipako1.mp3</t>
+  </si>
+  <si>
+    <t>trainingaudio/27_pakapa2.mp3</t>
+  </si>
+  <si>
+    <t>trainingaudio/20_tatito3.mp3</t>
+  </si>
+  <si>
+    <t>trainingaudio/12_pokika2.mp3</t>
+  </si>
+  <si>
+    <t>trainingaudio/01_kitipi3.mp3</t>
+  </si>
+  <si>
+    <t>trainingaudio/09_tipata3.mp3</t>
+  </si>
+  <si>
+    <t>trainingaudio/25_tapapi2.mp3</t>
+  </si>
+  <si>
+    <t>trainingaudio/15_kopota2.mp3</t>
+  </si>
+  <si>
+    <t>trainingaudio/24_takopa3.mp3</t>
+  </si>
+  <si>
+    <t>trainingaudio/06_titoka3.mp3</t>
+  </si>
+  <si>
+    <t>trainingaudio/16_kokapi3.mp3</t>
+  </si>
+  <si>
+    <t>trainingaudio/22_kakoki1.mp3</t>
+  </si>
+  <si>
+    <t>trainingaudio/17_kotako1.mp3</t>
+  </si>
+  <si>
+    <t>trainingaudio/13_kopopi2.mp3</t>
+  </si>
+  <si>
+    <t>trainingaudio/94_kipipi2.mp3</t>
+  </si>
+  <si>
+    <t>trainingaudio/19_papipi3.mp3</t>
+  </si>
+  <si>
+    <t>trainingaudio/11_tokiko2.mp3</t>
+  </si>
+  <si>
+    <t>trainingaudio/26_kapako3.mp3</t>
+  </si>
+  <si>
+    <t>trainingaudio/23_patoko2.mp3</t>
+  </si>
+  <si>
+    <t>trainingaudio/14_pokoto2.mp3</t>
+  </si>
+  <si>
+    <t>trainingaudio/03_kikita1.mp3</t>
+  </si>
+  <si>
+    <t>trainingaudio/04_kitoti1.mp3</t>
+  </si>
+  <si>
+    <t>trainingaudio/02_pitito2.mp3</t>
+  </si>
+  <si>
+    <t>trainingaudio/20_tatito2.mp3</t>
+  </si>
+  <si>
+    <t>trainingaudio/24_takopa2.mp3</t>
+  </si>
+  <si>
+    <t>trainingaudio/09_tipata1.mp3</t>
+  </si>
+  <si>
+    <t>trainingaudio/14_pokoto1.mp3</t>
+  </si>
+  <si>
+    <t>trainingaudio/15_kopota3.mp3</t>
+  </si>
+  <si>
+    <t>trainingaudio/27_pakapa1.mp3</t>
+  </si>
+  <si>
+    <t>trainingaudio/22_kakoki2.mp3</t>
+  </si>
+  <si>
+    <t>trainingaudio/18_popata3.mp3</t>
+  </si>
+  <si>
+    <t>trainingaudio/13_kopopi1.mp3</t>
+  </si>
+  <si>
+    <t>trainingaudio/06_titoka2.mp3</t>
+  </si>
+  <si>
+    <t>trainingaudio/05_titopo3.mp3</t>
+  </si>
+  <si>
+    <t>trainingaudio/07_pitapi3.mp3</t>
+  </si>
+  <si>
+    <t>trainingaudio/25_tapapi3.mp3</t>
+  </si>
+  <si>
+    <t>trainingaudio/01_kitipi1.mp3</t>
+  </si>
+  <si>
+    <t>trainingaudio/10_tokiti2.mp3</t>
+  </si>
+  <si>
+    <t>trainingaudio/21_papika3.mp3</t>
+  </si>
+  <si>
+    <t>trainingaudio/08_tipako3.mp3</t>
+  </si>
+  <si>
+    <t>trainingaudio/02_pitito3.mp3</t>
+  </si>
+  <si>
+    <t>trainingaudio/08_tipako2.mp3</t>
+  </si>
+  <si>
+    <t>trainingaudio/16_kokapi2.mp3</t>
+  </si>
+  <si>
+    <t>trainingaudio/17_kotako3.mp3</t>
+  </si>
+  <si>
+    <t>trainingaudio/11_tokiko1.mp3</t>
+  </si>
+  <si>
+    <t>trainingaudio/23_patoko3.mp3</t>
+  </si>
+  <si>
+    <t>trainingaudio/03_kikita2.mp3</t>
   </si>
   <si>
     <t>pngimages/04_ladder.png</t>

--- a/html/resources/ioaConditions/test1Conditions.xlsx
+++ b/html/resources/ioaConditions/test1Conditions.xlsx
@@ -34,226 +34,226 @@
     <t>feedback</t>
   </si>
   <si>
-    <t>trainingaudio/04_kitoti2.mp3</t>
-  </si>
-  <si>
-    <t>trainingaudio/12_pokika1.mp3</t>
-  </si>
-  <si>
-    <t>trainingaudio/02_pitito1.mp3</t>
-  </si>
-  <si>
-    <t>trainingaudio/20_tatito1.mp3</t>
-  </si>
-  <si>
-    <t>trainingaudio/24_takopa1.mp3</t>
-  </si>
-  <si>
-    <t>trainingaudio/09_tipata2.mp3</t>
-  </si>
-  <si>
-    <t>trainingaudio/14_pokoto3.mp3</t>
-  </si>
-  <si>
-    <t>trainingaudio/15_kopota1.mp3</t>
-  </si>
-  <si>
-    <t>trainingaudio/27_pakapa3.mp3</t>
-  </si>
-  <si>
-    <t>trainingaudio/22_kakoki3.mp3</t>
-  </si>
-  <si>
-    <t>trainingaudio/18_popata1.mp3</t>
-  </si>
-  <si>
-    <t>trainingaudio/13_kopopi3.mp3</t>
-  </si>
-  <si>
-    <t>trainingaudio/06_titoka1.mp3</t>
-  </si>
-  <si>
-    <t>trainingaudio/11_tokiko3.mp3</t>
-  </si>
-  <si>
-    <t>trainingaudio/05_titopo1.mp3</t>
-  </si>
-  <si>
-    <t>trainingaudio/94_kipipi1.mp3</t>
-  </si>
-  <si>
-    <t>trainingaudio/07_pitapi1.mp3</t>
-  </si>
-  <si>
-    <t>trainingaudio/25_tapapi1.mp3</t>
-  </si>
-  <si>
-    <t>trainingaudio/03_kikita3.mp3</t>
-  </si>
-  <si>
-    <t>trainingaudio/01_kitipi2.mp3</t>
-  </si>
-  <si>
-    <t>trainingaudio/26_kapako1.mp3</t>
-  </si>
-  <si>
-    <t>trainingaudio/10_tokiti3.mp3</t>
-  </si>
-  <si>
-    <t>trainingaudio/21_papika2.mp3</t>
-  </si>
-  <si>
-    <t>trainingaudio/19_papipi2.mp3</t>
-  </si>
-  <si>
-    <t>trainingaudio/17_kotako2.mp3</t>
-  </si>
-  <si>
-    <t>trainingaudio/16_kokapi1.mp3</t>
-  </si>
-  <si>
-    <t>trainingaudio/23_patoko1.mp3</t>
-  </si>
-  <si>
-    <t>trainingaudio/08_tipako1.mp3</t>
-  </si>
-  <si>
-    <t>trainingaudio/27_pakapa2.mp3</t>
-  </si>
-  <si>
-    <t>trainingaudio/20_tatito3.mp3</t>
-  </si>
-  <si>
-    <t>trainingaudio/12_pokika2.mp3</t>
-  </si>
-  <si>
-    <t>trainingaudio/01_kitipi3.mp3</t>
-  </si>
-  <si>
-    <t>trainingaudio/09_tipata3.mp3</t>
-  </si>
-  <si>
-    <t>trainingaudio/25_tapapi2.mp3</t>
-  </si>
-  <si>
-    <t>trainingaudio/15_kopota2.mp3</t>
-  </si>
-  <si>
-    <t>trainingaudio/24_takopa3.mp3</t>
-  </si>
-  <si>
-    <t>trainingaudio/06_titoka3.mp3</t>
-  </si>
-  <si>
-    <t>trainingaudio/16_kokapi3.mp3</t>
-  </si>
-  <si>
-    <t>trainingaudio/22_kakoki1.mp3</t>
-  </si>
-  <si>
-    <t>trainingaudio/17_kotako1.mp3</t>
-  </si>
-  <si>
-    <t>trainingaudio/13_kopopi2.mp3</t>
-  </si>
-  <si>
-    <t>trainingaudio/94_kipipi2.mp3</t>
-  </si>
-  <si>
-    <t>trainingaudio/19_papipi3.mp3</t>
-  </si>
-  <si>
-    <t>trainingaudio/11_tokiko2.mp3</t>
-  </si>
-  <si>
-    <t>trainingaudio/26_kapako3.mp3</t>
-  </si>
-  <si>
-    <t>trainingaudio/23_patoko2.mp3</t>
-  </si>
-  <si>
-    <t>trainingaudio/14_pokoto2.mp3</t>
-  </si>
-  <si>
-    <t>trainingaudio/03_kikita1.mp3</t>
-  </si>
-  <si>
-    <t>trainingaudio/04_kitoti1.mp3</t>
-  </si>
-  <si>
-    <t>trainingaudio/02_pitito2.mp3</t>
-  </si>
-  <si>
-    <t>trainingaudio/20_tatito2.mp3</t>
-  </si>
-  <si>
-    <t>trainingaudio/24_takopa2.mp3</t>
-  </si>
-  <si>
-    <t>trainingaudio/09_tipata1.mp3</t>
-  </si>
-  <si>
-    <t>trainingaudio/14_pokoto1.mp3</t>
-  </si>
-  <si>
-    <t>trainingaudio/15_kopota3.mp3</t>
-  </si>
-  <si>
-    <t>trainingaudio/27_pakapa1.mp3</t>
-  </si>
-  <si>
-    <t>trainingaudio/22_kakoki2.mp3</t>
-  </si>
-  <si>
-    <t>trainingaudio/18_popata3.mp3</t>
-  </si>
-  <si>
-    <t>trainingaudio/13_kopopi1.mp3</t>
-  </si>
-  <si>
-    <t>trainingaudio/06_titoka2.mp3</t>
-  </si>
-  <si>
-    <t>trainingaudio/05_titopo3.mp3</t>
-  </si>
-  <si>
-    <t>trainingaudio/07_pitapi3.mp3</t>
-  </si>
-  <si>
-    <t>trainingaudio/25_tapapi3.mp3</t>
-  </si>
-  <si>
-    <t>trainingaudio/01_kitipi1.mp3</t>
-  </si>
-  <si>
-    <t>trainingaudio/10_tokiti2.mp3</t>
-  </si>
-  <si>
-    <t>trainingaudio/21_papika3.mp3</t>
-  </si>
-  <si>
-    <t>trainingaudio/08_tipako3.mp3</t>
-  </si>
-  <si>
-    <t>trainingaudio/02_pitito3.mp3</t>
-  </si>
-  <si>
-    <t>trainingaudio/08_tipako2.mp3</t>
-  </si>
-  <si>
-    <t>trainingaudio/16_kokapi2.mp3</t>
-  </si>
-  <si>
-    <t>trainingaudio/17_kotako3.mp3</t>
-  </si>
-  <si>
-    <t>trainingaudio/11_tokiko1.mp3</t>
-  </si>
-  <si>
-    <t>trainingaudio/23_patoko3.mp3</t>
-  </si>
-  <si>
-    <t>trainingaudio/03_kikita2.mp3</t>
+    <t>trainingaudio/04_kitoti2.ogg</t>
+  </si>
+  <si>
+    <t>trainingaudio/12_pokika1.ogg</t>
+  </si>
+  <si>
+    <t>trainingaudio/02_pitito1.ogg</t>
+  </si>
+  <si>
+    <t>trainingaudio/20_tatito1.ogg</t>
+  </si>
+  <si>
+    <t>trainingaudio/24_takopa1.ogg</t>
+  </si>
+  <si>
+    <t>trainingaudio/09_tipata2.ogg</t>
+  </si>
+  <si>
+    <t>trainingaudio/14_pokoto3.ogg</t>
+  </si>
+  <si>
+    <t>trainingaudio/15_kopota1.ogg</t>
+  </si>
+  <si>
+    <t>trainingaudio/27_pakapa3.ogg</t>
+  </si>
+  <si>
+    <t>trainingaudio/22_kakoki3.ogg</t>
+  </si>
+  <si>
+    <t>trainingaudio/18_popata1.ogg</t>
+  </si>
+  <si>
+    <t>trainingaudio/13_kopopi3.ogg</t>
+  </si>
+  <si>
+    <t>trainingaudio/06_titoka1.ogg</t>
+  </si>
+  <si>
+    <t>trainingaudio/11_tokiko3.ogg</t>
+  </si>
+  <si>
+    <t>trainingaudio/05_titopo1.ogg</t>
+  </si>
+  <si>
+    <t>trainingaudio/94_kipipi1.ogg</t>
+  </si>
+  <si>
+    <t>trainingaudio/07_pitapi1.ogg</t>
+  </si>
+  <si>
+    <t>trainingaudio/25_tapapi1.ogg</t>
+  </si>
+  <si>
+    <t>trainingaudio/03_kikita3.ogg</t>
+  </si>
+  <si>
+    <t>trainingaudio/01_kitipi2.ogg</t>
+  </si>
+  <si>
+    <t>trainingaudio/26_kapako1.ogg</t>
+  </si>
+  <si>
+    <t>trainingaudio/10_tokiti3.ogg</t>
+  </si>
+  <si>
+    <t>trainingaudio/21_papika2.ogg</t>
+  </si>
+  <si>
+    <t>trainingaudio/19_papipi2.ogg</t>
+  </si>
+  <si>
+    <t>trainingaudio/17_kotako2.ogg</t>
+  </si>
+  <si>
+    <t>trainingaudio/16_kokapi1.ogg</t>
+  </si>
+  <si>
+    <t>trainingaudio/23_patoko1.ogg</t>
+  </si>
+  <si>
+    <t>trainingaudio/08_tipako1.ogg</t>
+  </si>
+  <si>
+    <t>trainingaudio/27_pakapa2.ogg</t>
+  </si>
+  <si>
+    <t>trainingaudio/20_tatito3.ogg</t>
+  </si>
+  <si>
+    <t>trainingaudio/12_pokika2.ogg</t>
+  </si>
+  <si>
+    <t>trainingaudio/01_kitipi3.ogg</t>
+  </si>
+  <si>
+    <t>trainingaudio/09_tipata3.ogg</t>
+  </si>
+  <si>
+    <t>trainingaudio/25_tapapi2.ogg</t>
+  </si>
+  <si>
+    <t>trainingaudio/15_kopota2.ogg</t>
+  </si>
+  <si>
+    <t>trainingaudio/24_takopa3.ogg</t>
+  </si>
+  <si>
+    <t>trainingaudio/06_titoka3.ogg</t>
+  </si>
+  <si>
+    <t>trainingaudio/16_kokapi3.ogg</t>
+  </si>
+  <si>
+    <t>trainingaudio/22_kakoki1.ogg</t>
+  </si>
+  <si>
+    <t>trainingaudio/17_kotako1.ogg</t>
+  </si>
+  <si>
+    <t>trainingaudio/13_kopopi2.ogg</t>
+  </si>
+  <si>
+    <t>trainingaudio/94_kipipi2.ogg</t>
+  </si>
+  <si>
+    <t>trainingaudio/19_papipi3.ogg</t>
+  </si>
+  <si>
+    <t>trainingaudio/11_tokiko2.ogg</t>
+  </si>
+  <si>
+    <t>trainingaudio/26_kapako3.ogg</t>
+  </si>
+  <si>
+    <t>trainingaudio/23_patoko2.ogg</t>
+  </si>
+  <si>
+    <t>trainingaudio/14_pokoto2.ogg</t>
+  </si>
+  <si>
+    <t>trainingaudio/03_kikita1.ogg</t>
+  </si>
+  <si>
+    <t>trainingaudio/04_kitoti1.ogg</t>
+  </si>
+  <si>
+    <t>trainingaudio/02_pitito2.ogg</t>
+  </si>
+  <si>
+    <t>trainingaudio/20_tatito2.ogg</t>
+  </si>
+  <si>
+    <t>trainingaudio/24_takopa2.ogg</t>
+  </si>
+  <si>
+    <t>trainingaudio/09_tipata1.ogg</t>
+  </si>
+  <si>
+    <t>trainingaudio/14_pokoto1.ogg</t>
+  </si>
+  <si>
+    <t>trainingaudio/15_kopota3.ogg</t>
+  </si>
+  <si>
+    <t>trainingaudio/27_pakapa1.ogg</t>
+  </si>
+  <si>
+    <t>trainingaudio/22_kakoki2.ogg</t>
+  </si>
+  <si>
+    <t>trainingaudio/18_popata3.ogg</t>
+  </si>
+  <si>
+    <t>trainingaudio/13_kopopi1.ogg</t>
+  </si>
+  <si>
+    <t>trainingaudio/06_titoka2.ogg</t>
+  </si>
+  <si>
+    <t>trainingaudio/05_titopo3.ogg</t>
+  </si>
+  <si>
+    <t>trainingaudio/07_pitapi3.ogg</t>
+  </si>
+  <si>
+    <t>trainingaudio/25_tapapi3.ogg</t>
+  </si>
+  <si>
+    <t>trainingaudio/01_kitipi1.ogg</t>
+  </si>
+  <si>
+    <t>trainingaudio/10_tokiti2.ogg</t>
+  </si>
+  <si>
+    <t>trainingaudio/21_papika3.ogg</t>
+  </si>
+  <si>
+    <t>trainingaudio/08_tipako3.ogg</t>
+  </si>
+  <si>
+    <t>trainingaudio/02_pitito3.ogg</t>
+  </si>
+  <si>
+    <t>trainingaudio/08_tipako2.ogg</t>
+  </si>
+  <si>
+    <t>trainingaudio/16_kokapi2.ogg</t>
+  </si>
+  <si>
+    <t>trainingaudio/17_kotako3.ogg</t>
+  </si>
+  <si>
+    <t>trainingaudio/11_tokiko1.ogg</t>
+  </si>
+  <si>
+    <t>trainingaudio/23_patoko3.ogg</t>
+  </si>
+  <si>
+    <t>trainingaudio/03_kikita2.ogg</t>
   </si>
   <si>
     <t>pngimages/04_ladder.png</t>

--- a/html/resources/ioaConditions/test1Conditions.xlsx
+++ b/html/resources/ioaConditions/test1Conditions.xlsx
@@ -34,226 +34,226 @@
     <t>feedback</t>
   </si>
   <si>
-    <t>trainingaudio/04_kitoti2.ogg</t>
-  </si>
-  <si>
-    <t>trainingaudio/12_pokika1.ogg</t>
-  </si>
-  <si>
-    <t>trainingaudio/02_pitito1.ogg</t>
-  </si>
-  <si>
-    <t>trainingaudio/20_tatito1.ogg</t>
-  </si>
-  <si>
-    <t>trainingaudio/24_takopa1.ogg</t>
-  </si>
-  <si>
-    <t>trainingaudio/09_tipata2.ogg</t>
-  </si>
-  <si>
-    <t>trainingaudio/14_pokoto3.ogg</t>
-  </si>
-  <si>
-    <t>trainingaudio/15_kopota1.ogg</t>
-  </si>
-  <si>
-    <t>trainingaudio/27_pakapa3.ogg</t>
-  </si>
-  <si>
-    <t>trainingaudio/22_kakoki3.ogg</t>
-  </si>
-  <si>
-    <t>trainingaudio/18_popata1.ogg</t>
-  </si>
-  <si>
-    <t>trainingaudio/13_kopopi3.ogg</t>
-  </si>
-  <si>
-    <t>trainingaudio/06_titoka1.ogg</t>
-  </si>
-  <si>
-    <t>trainingaudio/11_tokiko3.ogg</t>
-  </si>
-  <si>
-    <t>trainingaudio/05_titopo1.ogg</t>
-  </si>
-  <si>
-    <t>trainingaudio/94_kipipi1.ogg</t>
-  </si>
-  <si>
-    <t>trainingaudio/07_pitapi1.ogg</t>
-  </si>
-  <si>
-    <t>trainingaudio/25_tapapi1.ogg</t>
-  </si>
-  <si>
-    <t>trainingaudio/03_kikita3.ogg</t>
-  </si>
-  <si>
-    <t>trainingaudio/01_kitipi2.ogg</t>
-  </si>
-  <si>
-    <t>trainingaudio/26_kapako1.ogg</t>
-  </si>
-  <si>
-    <t>trainingaudio/10_tokiti3.ogg</t>
-  </si>
-  <si>
-    <t>trainingaudio/21_papika2.ogg</t>
-  </si>
-  <si>
-    <t>trainingaudio/19_papipi2.ogg</t>
-  </si>
-  <si>
-    <t>trainingaudio/17_kotako2.ogg</t>
-  </si>
-  <si>
-    <t>trainingaudio/16_kokapi1.ogg</t>
-  </si>
-  <si>
-    <t>trainingaudio/23_patoko1.ogg</t>
-  </si>
-  <si>
-    <t>trainingaudio/08_tipako1.ogg</t>
-  </si>
-  <si>
-    <t>trainingaudio/27_pakapa2.ogg</t>
-  </si>
-  <si>
-    <t>trainingaudio/20_tatito3.ogg</t>
-  </si>
-  <si>
-    <t>trainingaudio/12_pokika2.ogg</t>
-  </si>
-  <si>
-    <t>trainingaudio/01_kitipi3.ogg</t>
-  </si>
-  <si>
-    <t>trainingaudio/09_tipata3.ogg</t>
-  </si>
-  <si>
-    <t>trainingaudio/25_tapapi2.ogg</t>
-  </si>
-  <si>
-    <t>trainingaudio/15_kopota2.ogg</t>
-  </si>
-  <si>
-    <t>trainingaudio/24_takopa3.ogg</t>
-  </si>
-  <si>
-    <t>trainingaudio/06_titoka3.ogg</t>
-  </si>
-  <si>
-    <t>trainingaudio/16_kokapi3.ogg</t>
-  </si>
-  <si>
-    <t>trainingaudio/22_kakoki1.ogg</t>
-  </si>
-  <si>
-    <t>trainingaudio/17_kotako1.ogg</t>
-  </si>
-  <si>
-    <t>trainingaudio/13_kopopi2.ogg</t>
-  </si>
-  <si>
-    <t>trainingaudio/94_kipipi2.ogg</t>
-  </si>
-  <si>
-    <t>trainingaudio/19_papipi3.ogg</t>
-  </si>
-  <si>
-    <t>trainingaudio/11_tokiko2.ogg</t>
-  </si>
-  <si>
-    <t>trainingaudio/26_kapako3.ogg</t>
-  </si>
-  <si>
-    <t>trainingaudio/23_patoko2.ogg</t>
-  </si>
-  <si>
-    <t>trainingaudio/14_pokoto2.ogg</t>
-  </si>
-  <si>
-    <t>trainingaudio/03_kikita1.ogg</t>
-  </si>
-  <si>
-    <t>trainingaudio/04_kitoti1.ogg</t>
-  </si>
-  <si>
-    <t>trainingaudio/02_pitito2.ogg</t>
-  </si>
-  <si>
-    <t>trainingaudio/20_tatito2.ogg</t>
-  </si>
-  <si>
-    <t>trainingaudio/24_takopa2.ogg</t>
-  </si>
-  <si>
-    <t>trainingaudio/09_tipata1.ogg</t>
-  </si>
-  <si>
-    <t>trainingaudio/14_pokoto1.ogg</t>
-  </si>
-  <si>
-    <t>trainingaudio/15_kopota3.ogg</t>
-  </si>
-  <si>
-    <t>trainingaudio/27_pakapa1.ogg</t>
-  </si>
-  <si>
-    <t>trainingaudio/22_kakoki2.ogg</t>
-  </si>
-  <si>
-    <t>trainingaudio/18_popata3.ogg</t>
-  </si>
-  <si>
-    <t>trainingaudio/13_kopopi1.ogg</t>
-  </si>
-  <si>
-    <t>trainingaudio/06_titoka2.ogg</t>
-  </si>
-  <si>
-    <t>trainingaudio/05_titopo3.ogg</t>
-  </si>
-  <si>
-    <t>trainingaudio/07_pitapi3.ogg</t>
-  </si>
-  <si>
-    <t>trainingaudio/25_tapapi3.ogg</t>
-  </si>
-  <si>
-    <t>trainingaudio/01_kitipi1.ogg</t>
-  </si>
-  <si>
-    <t>trainingaudio/10_tokiti2.ogg</t>
-  </si>
-  <si>
-    <t>trainingaudio/21_papika3.ogg</t>
-  </si>
-  <si>
-    <t>trainingaudio/08_tipako3.ogg</t>
-  </si>
-  <si>
-    <t>trainingaudio/02_pitito3.ogg</t>
-  </si>
-  <si>
-    <t>trainingaudio/08_tipako2.ogg</t>
-  </si>
-  <si>
-    <t>trainingaudio/16_kokapi2.ogg</t>
-  </si>
-  <si>
-    <t>trainingaudio/17_kotako3.ogg</t>
-  </si>
-  <si>
-    <t>trainingaudio/11_tokiko1.ogg</t>
-  </si>
-  <si>
-    <t>trainingaudio/23_patoko3.ogg</t>
-  </si>
-  <si>
-    <t>trainingaudio/03_kikita2.ogg</t>
+    <t>trainingaudio/04_kitoti2.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/12_pokika1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/02_pitito1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/20_tatito1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/24_takopa1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/09_tipata2.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/14_pokoto3.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/15_kopota1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/27_pakapa3.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/22_kakoki3.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/18_popata1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/13_kopopi3.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/06_titoka1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/11_tokiko3.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/05_titopo1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/94_kipipi1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/07_pitapi1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/25_tapapi1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/03_kikita3.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/01_kitipi2.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/26_kapako1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/10_tokiti3.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/21_papika2.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/19_papipi2.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/17_kotako2.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/16_kokapi1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/23_patoko1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/08_tipako1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/27_pakapa2.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/20_tatito3.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/12_pokika2.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/01_kitipi3.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/09_tipata3.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/25_tapapi2.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/15_kopota2.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/24_takopa3.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/06_titoka3.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/16_kokapi3.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/22_kakoki1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/17_kotako1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/13_kopopi2.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/94_kipipi2.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/19_papipi3.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/11_tokiko2.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/26_kapako3.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/23_patoko2.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/14_pokoto2.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/03_kikita1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/04_kitoti1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/02_pitito2.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/20_tatito2.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/24_takopa2.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/09_tipata1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/14_pokoto1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/15_kopota3.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/27_pakapa1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/22_kakoki2.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/18_popata3.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/13_kopopi1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/06_titoka2.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/05_titopo3.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/07_pitapi3.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/25_tapapi3.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/01_kitipi1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/10_tokiti2.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/21_papika3.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/08_tipako3.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/02_pitito3.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/08_tipako2.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/16_kokapi2.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/17_kotako3.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/11_tokiko1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/23_patoko3.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/03_kikita2.wav</t>
   </si>
   <si>
     <t>pngimages/04_ladder.png</t>
